--- a/output/instance_SMALL_scenario_2/dual_variables_iteration8.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration8.xlsx
@@ -541,7 +541,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.240353833340225</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.450244719321548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.0341205504697939</v>
       </c>
       <c r="B16" t="n">
-        <v>1.721067456196411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -645,7 +645,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.187009776770051</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1815907352868351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -733,7 +733,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.05140164354524258</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.06836140242543505</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.9640031548732854</v>
       </c>
     </row>
     <row r="41">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.82412374953482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.940259496745422</v>
+        <v>1.013194205666437</v>
       </c>
     </row>
     <row r="62">
@@ -957,7 +957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.528619146410172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-155864.1430883103</v>
+        <v>8263140.549510287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2004893.622897133</v>
+        <v>8152040.169620151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>6227793.953838659</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration8.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration8.xlsx
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450244719321548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0341205504697939</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.2831078632940902</v>
       </c>
     </row>
     <row r="17">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2.183573134663976</v>
       </c>
     </row>
     <row r="25">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.06836140242543505</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9640031548732854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -821,10 +821,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.2264131580256175</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.4612574414132058</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.1942236899610495</v>
       </c>
     </row>
     <row r="51">
@@ -840,12 +840,12 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.04104491635856444</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.05182702263477301</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013194205666437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0.3457160290547003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.2700510980523144</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8263140.549510287</v>
+        <v>1935936.426021874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8152040.169620151</v>
+        <v>2583294.482133841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6227793.953838659</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
